--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661219.677241198</v>
+        <v>1736749.346906003</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>191.6468735142586</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>181.8921573515706</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>106.0559553100029</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.850908719582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>189.8595359871535</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>326.7014162146286</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.1916198885552</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>172.2075379833797</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>353.4869410072735</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>223.4130984238326</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>221.4211357805159</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.54139430664144</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>34.86413021890997</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5470903405873</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>64.03417465124636</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>50.4530051165445</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>92.81262041878114</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.24185052197838</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.8965767413804</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0076990301526</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>9.152407598114049</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>147.4019814764075</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151973</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.36999913497316</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>95.31089658769065</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50.45300511654406</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>41.92656778835409</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>114.9309043193598</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>115.526976800218</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>155.8385935972308</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.941371236149</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.941371236149</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>818.9554664465411</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>400.991658344728</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4527,13 @@
         <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>591.5848374741946</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>191.5102746370868</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.576038264086</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1448.576038264086</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1090.310339657335</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>704.5220870590908</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>293.5361822694833</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>279.6127782080742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.576038264086</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5136,10 +5138,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5236,13 +5238,13 @@
         <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5467,19 +5469,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>860.7301020851612</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851612</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1312.505068193673</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1088.719652983179</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1088.719652983179</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1088.719652983179</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>1088.719652983179</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="X19" t="n">
-        <v>860.7301020851612</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y19" t="n">
-        <v>860.7301020851612</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5746,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.19758416447</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.068505649155</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212481</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1323227212481</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1323227212481</v>
+        <v>3867.970784729898</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1323227212481</v>
+        <v>3721.080837231988</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3552.905515551808</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3552.905515551808</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>4316.752914771445</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229249</v>
+        <v>4088.763363873428</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793947</v>
+        <v>3867.970784729898</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6084,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>607.1380464627246</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>438.2018635348177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>788.7865112929643</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,67 +6211,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
         <v>1247.466478653857</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3570.689985294729</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294729</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294729</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294729</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294729</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4827.62570761896</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4627.705697534513</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4403.920282324018</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="U28" t="n">
-        <v>4114.791643537576</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.10715533169</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="W28" t="n">
-        <v>3570.689985294729</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="X28" t="n">
-        <v>3570.689985294729</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y28" t="n">
-        <v>3570.689985294729</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="29">
@@ -6458,34 +6460,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>981.5095496229249</v>
+        <v>1028.139166941221</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>859.2029840133141</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>709.0863446009784</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>561.1732510185852</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>414.2833035206748</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>246.1079818404955</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229249</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y31" t="n">
-        <v>981.5095496229249</v>
+        <v>1209.787631771461</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6704,46 +6706,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
         <v>1247.466478653857</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688123</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799416</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471245</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.99626047346</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262966</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515096</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>3795.657518945773</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>4075.19758416447</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601277</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916991</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>429.2403974873376</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>429.2403974873376</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>429.2403974873376</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,19 +7113,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
         <v>1209.787631771461</v>
@@ -7135,10 +7137,10 @@
         <v>1209.787631771461</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>474.7746905116405</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>721.5398184181047</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.859951698066</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7333,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>401.51975976348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,10 +7572,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557903</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659886</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516356</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,16 +7636,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7670,7 +7672,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,16 +7715,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126483</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.503549752619</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>62.79465928983132</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>62.79465928983063</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>105.9521741567361</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>111.5698324276592</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.3737196430159</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>222.4888236853446</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>116.0405633468331</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.60662504549086</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>88.25171794139921</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.06777566241237</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.5398620282367</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>158.0944135005138</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.511846891128613</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338005</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>97.12356932840443</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3987588013465</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>116.0405633468335</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>103.4944802345772</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.98990566424345</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,10 +25845,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>30.90698584635115</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26074,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.6844047393602</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715715</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="14">
@@ -26314,19 +26316,19 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651773</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="E2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="G2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.3246721361</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26338,19 +26340,19 @@
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="L2" t="n">
-        <v>488786.324672136</v>
-      </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721358</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230231</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346033</v>
+        <v>-334166.6284346032</v>
       </c>
       <c r="C6" t="n">
+        <v>255801.2507799416</v>
+      </c>
+      <c r="D6" t="n">
         <v>255801.2507799415</v>
-      </c>
-      <c r="D6" t="n">
-        <v>255801.2507799416</v>
       </c>
       <c r="E6" t="n">
         <v>-157664.5833057791</v>
@@ -26534,25 +26536,25 @@
         <v>367495.4531711169</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.4531711171</v>
+        <v>367495.453171117</v>
       </c>
       <c r="H6" t="n">
-        <v>367495.4531711169</v>
+        <v>367495.453171117</v>
       </c>
       <c r="I6" t="n">
-        <v>367495.4531711169</v>
+        <v>367495.4531711165</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.2339785239</v>
+        <v>191072.2339785242</v>
       </c>
       <c r="K6" t="n">
         <v>367495.4531711169</v>
       </c>
       <c r="L6" t="n">
-        <v>367495.4531711171</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="M6" t="n">
-        <v>232694.43793728</v>
+        <v>232694.4379372798</v>
       </c>
       <c r="N6" t="n">
         <v>367495.4531711171</v>
@@ -26561,7 +26563,7 @@
         <v>367495.4531711168</v>
       </c>
       <c r="P6" t="n">
-        <v>367495.4531711169</v>
+        <v>367495.4531711168</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26811,13 +26813,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>132.2758992500985</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>204.345781304483</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>180.4670430265881</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.73374463251281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>175.4133557838541</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>59.53652244142495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>31.11818237049576</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>114.3154603532113</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>11.78595076373404</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>100.5096743405245</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>64.86073846146184</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.80115265030472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34378,13 +34380,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34399,7 +34401,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,7 +34456,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34527,10 +34529,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34539,7 +34541,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,13 +34553,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>269.888074221356</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36446,19 +36448,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299157</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>213.37009787777</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37791,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38026,19 +38028,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38105,16 +38107,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38181,7 +38183,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1736749.346906003</v>
+        <v>1729732.332014292</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800613</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10649678.81092546</v>
+        <v>10649678.81092545</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8921573515706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0559553100029</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>132.2250672029881</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>189.8595359871535</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.6434057527908</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>172.2075379833797</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>353.4869410072735</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>309.26324797615</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>221.4211357805159</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.86413021890997</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>93.87916681139943</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>64.03417465124636</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81262041878114</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>145.8066325228122</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.24185052197838</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>96.84207451769373</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0076990301526</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4019814764075</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917709999</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.36999913497316</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>20.82998177290333</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>50.45300511654406</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151892</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.9309043193598</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404398</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.315822205649</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>591.5848374741946</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>591.5848374741946</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.7922583306645</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.149526959219</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2530.842620560858</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2312.207953532921</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2058.446168171012</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2058.446168171012</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1705.677512900898</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>1332.211754639818</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>942.0724226640064</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>366.3301009881927</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,37 +5290,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188989</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5503,64 +5503,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>355.6416303362487</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,34 +5764,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4555.115143601279</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.970784729898</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.080837231988</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3552.905515551808</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3552.905515551808</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W22" t="n">
-        <v>4316.752914771445</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>4088.763363873428</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>3867.970784729898</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.1380464627246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>438.2018635348177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>438.2018635348177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>438.2018635348177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>438.2018635348177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>1009.579090436494</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>788.7865112929643</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1083.872976196742</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1083.872976196742</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1083.872976196742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.872976196742</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>855.8834252987245</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1028.139166941221</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>859.2029840133141</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D31" t="n">
-        <v>709.0863446009784</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E31" t="n">
-        <v>561.1732510185852</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F31" t="n">
-        <v>414.2833035206748</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G31" t="n">
-        <v>246.1079818404955</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,16 +6657,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.787631771461</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.787631771461</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.787631771461</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899121</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601277</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.3570368996734</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="C37" t="n">
-        <v>579.3570368996734</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="D37" t="n">
-        <v>429.2403974873376</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="E37" t="n">
-        <v>429.2403974873376</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="F37" t="n">
-        <v>429.2403974873376</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>118.257477089481</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765157</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765157</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.787631771461</v>
+        <v>496.6650364395551</v>
       </c>
       <c r="X37" t="n">
-        <v>981.7980808734433</v>
+        <v>268.6754855415377</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.0055017299131</v>
+        <v>268.6754855415377</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262059</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S43" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T43" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>496.6650364395555</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>268.6754855415382</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515103</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643327</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701553</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227043</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507004</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1800.678268171036</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2080.218333389732</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028587</v>
@@ -7806,52 +7806,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765161</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706293</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336687</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735921</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492842</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>253.7371603504795</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567361</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>111.5698324276592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>222.4888236853446</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>17.60662504549086</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>140.7163658137788</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>88.25171794139921</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>189.3952778808836</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.5398620282367</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H31" t="n">
-        <v>1.511846891128613</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>27.33984058837402</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>97.12356932840443</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>89.58926369136873</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>116.0405633468335</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338815</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
-        <v>82.98990566424345</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>48.840843211655</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>30.90698584635115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338818</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715715</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.136271571</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="H2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="I2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="I2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721356</v>
       </c>
       <c r="N2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="O2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925928</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338357</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,16 +26450,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230241</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230243</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871649</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346032</v>
+        <v>-334166.6284346033</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799416</v>
+        <v>255801.2507799417</v>
       </c>
       <c r="D6" t="n">
         <v>255801.2507799415</v>
       </c>
       <c r="E6" t="n">
-        <v>-157664.5833057791</v>
+        <v>-158639.1745655008</v>
       </c>
       <c r="F6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113952</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="H6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="I6" t="n">
-        <v>367495.4531711165</v>
+        <v>366520.8619113952</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.2339785242</v>
+        <v>190097.6427188025</v>
       </c>
       <c r="K6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113954</v>
       </c>
       <c r="L6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="M6" t="n">
-        <v>232694.4379372798</v>
+        <v>231719.8466775594</v>
       </c>
       <c r="N6" t="n">
-        <v>367495.4531711171</v>
+        <v>366520.8619113952</v>
       </c>
       <c r="O6" t="n">
-        <v>367495.4531711168</v>
+        <v>366520.861911395</v>
       </c>
       <c r="P6" t="n">
-        <v>367495.4531711168</v>
+        <v>366520.8619113953</v>
       </c>
     </row>
   </sheetData>
@@ -26743,25 +26743,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
     </row>
     <row r="4">
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-5.96641133078965e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990159</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.345781304483</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>180.4670430265881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>86.35958614910669</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>175.4133557838541</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>9.772307056180779</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>114.3154603532113</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>187.9805657311406</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>11.78595076373404</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>104.520922044645</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>64.86073846146184</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586658</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221201</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>460.8305752820035</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1729732.332014292</v>
+        <v>1734671.594863324</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800613</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665972</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>387.415131812233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.85099796338696</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.2250672029881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.6434057527908</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>181.5568623361515</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.60408762095418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>309.26324797615</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>96.36163317610354</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>40.68538617551036</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6960756342351</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>93.87916681139943</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.153727875004</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>145.8066325228122</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>96.84207451769373</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>118.4898845065121</v>
+        <v>21.13333448790855</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917709999</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.6781710760786</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>20.82998177290333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151892</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836033</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.7438101404398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>101.0041688483411</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.315822205649</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1395.511531185079</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1009.723278586835</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>598.7373737972273</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1618402196266</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1618402196266</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>470.7225141620388</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.1618402196266</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2530.842620560858</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.207953532921</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="U5" t="n">
-        <v>2058.446168171012</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="V5" t="n">
-        <v>2058.446168171012</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.677512900898</v>
+        <v>2513.758320981706</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.211754639818</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y5" t="n">
-        <v>942.0724226640064</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.7988452409105</v>
+        <v>188.5023158795657</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777.3160057778002</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>777.3160057778002</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>777.3160057778002</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>777.3160057778002</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>366.3301009881927</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>777.3160057778002</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,25 +5020,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5047,7 +5047,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769081</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1457.819920885669</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1168.691282099228</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>858.914452762795</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>708.7978133504593</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>560.8847197680661</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.9947722701557</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,13 +5691,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
@@ -5706,19 +5706,19 @@
         <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227924</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227924</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
         <v>278.8655562905255</v>
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870658</v>
+        <v>434.390024399142</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9038434870658</v>
+        <v>265.4538414712351</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9038434870658</v>
+        <v>265.4538414712351</v>
       </c>
       <c r="E31" t="n">
-        <v>216.9038434870658</v>
+        <v>265.4538414712351</v>
       </c>
       <c r="F31" t="n">
-        <v>216.9038434870658</v>
+        <v>118.5638939733248</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>616.0384892293818</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550595</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,67 +6922,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514069</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014286</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231256</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014186</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465294</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121723</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851609</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590529</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614717</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126477</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571598</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636232</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.6754855415377</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="C37" t="n">
-        <v>268.6754855415377</v>
+        <v>362.4615353427249</v>
       </c>
       <c r="D37" t="n">
-        <v>268.6754855415377</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E37" t="n">
-        <v>268.6754855415377</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F37" t="n">
-        <v>268.6754855415377</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G37" t="n">
-        <v>268.6754855415377</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H37" t="n">
-        <v>118.257477089481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028572</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262957</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765157</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765157</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>496.6650364395551</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X37" t="n">
-        <v>268.6754855415377</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y37" t="n">
-        <v>268.6754855415377</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262059</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262958</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473452</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262958</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765161</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765161</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>496.6650364395555</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>268.6754855415382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515103</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643327</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701553</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227043</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1470.815640507004</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1800.678268171036</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2080.218333389732</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7806,49 +7806,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473452</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262958</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765161</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706293</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336687</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028587</v>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.8724419039345</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776807</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735921</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492842</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>253.7371603504795</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>180.8621748828789</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>1.797492829142499</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>192.3581855871779</v>
+        <v>286.2373523985809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>140.7163658137788</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>189.3952778808836</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>228.6728233935897</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>48.00368395686547</v>
+        <v>145.360233975469</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.33984058837402</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.673861546209082e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>34.9373019421338</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>89.58926369136873</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338815</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.840843211655</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338818</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715715</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.136271571</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="F2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="J2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="K2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="G2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="I2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721359</v>
-      </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721356</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338357</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,16 +26450,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230242</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230243</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871649</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346033</v>
+        <v>-334166.6284346032</v>
       </c>
       <c r="C6" t="n">
         <v>255801.2507799417</v>
       </c>
       <c r="D6" t="n">
-        <v>255801.2507799415</v>
+        <v>255801.2507799416</v>
       </c>
       <c r="E6" t="n">
-        <v>-158639.1745655008</v>
+        <v>-157762.0424317511</v>
       </c>
       <c r="F6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451446</v>
       </c>
       <c r="G6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451445</v>
       </c>
       <c r="H6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="I6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451447</v>
       </c>
       <c r="J6" t="n">
-        <v>190097.6427188025</v>
+        <v>190974.7748525518</v>
       </c>
       <c r="K6" t="n">
-        <v>366520.8619113954</v>
+        <v>367397.9940451449</v>
       </c>
       <c r="L6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451447</v>
       </c>
       <c r="M6" t="n">
-        <v>231719.8466775594</v>
+        <v>232596.9788113076</v>
       </c>
       <c r="N6" t="n">
-        <v>366520.8619113952</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="O6" t="n">
-        <v>366520.861911395</v>
+        <v>367397.9940451448</v>
       </c>
       <c r="P6" t="n">
-        <v>366520.8619113953</v>
+        <v>367397.9940451448</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,14 +26968,14 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.96641133078965e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990159</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>26.36903820856202</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.1084150172357</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185503</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.35958614910669</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>9.772307056180779</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>34.89145802150634</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.61823946332811</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.9805657311406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>104.520922044645</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>273.3694675023655</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28541,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>441.2361441450425</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092047</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350593</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714611</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586658</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970350593</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221201</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594828</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>460.8305752820035</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
